--- a/flaskr/files/test1.xlsx
+++ b/flaskr/files/test1.xlsx
@@ -1,76 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0333EB7-0AAD-493F-BE8A-CB8716061FA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9705" windowWidth="13410" xWindow="4245" yWindow="3750"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>awd</t>
-  </si>
-  <si>
-    <t>ww</t>
-  </si>
-  <si>
-    <t>daw</t>
-  </si>
-  <si>
-    <t>dwadsa</t>
-  </si>
-  <si>
-    <t>wadswa</t>
-  </si>
-  <si>
-    <t>sdwasd</t>
-  </si>
-  <si>
-    <t>sadwa</t>
-  </si>
-  <si>
-    <t>dswa</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
-    <t>wada</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,24 +43,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -369,72 +317,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Yeet1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sadwa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Yeet2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dswa</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Yeet3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dswaww</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Yeet4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sddqq</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Yeet5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dswa</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yeet6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>adsdwa</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Yeet7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>wada</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>